--- a/files/corn_recommendations_template.xlsx
+++ b/files/corn_recommendations_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DA13-ICTU\Music\AMIA Caraga\ACAP13\acap-caraga\server\src\scripts\data\dataset_v2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746019E6-B4C4-B943-8BC2-1B04630A4A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF4B9DC-1538-40F5-AB1D-2D1692026438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="4" xr2:uid="{E2D1DC89-D079-3B4D-864B-8CE149E3E279}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E2D1DC89-D079-3B4D-864B-8CE149E3E279}"/>
   </bookViews>
   <sheets>
     <sheet name="Corn_10Day" sheetId="9" r:id="rId1"/>
@@ -132,27 +132,6 @@
     <t>&lt;ul&gt;&lt;li&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat.&amp;nbsp;&lt;/li&gt;&lt;li&gt;Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng dry condition sa loob ng {{seasonal_range_identifier}} dahil sa dalawang magkasunod na buwan na may below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Bicol website para sa buong seasonal advisory.</t>
-  </si>
-  <si>
-    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng dry spell sa loob ng {{seasonal_range_identifier}} dahil sa tatlong magkasunod na buwan na may below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Bicol website para sa buong seasonal advisory.</t>
-  </si>
-  <si>
-    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng dry spell sa loob ng {{seasonal_range_identifier}} dahil sa dalawang magkasunod na buwan na may way below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Bicol website para sa buong seasonal advisory.</t>
-  </si>
-  <si>
-    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng drought sa loob ng {{seasonal_range_identifier}} dahil sa tatlong magkasunod na buwan na may way below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Bicol website para sa buong seasonal advisory.</t>
-  </si>
-  <si>
-    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng drought sa loob ng {{seasonal_range_identifier}} dahil sa limang magkasunod na buwan na may below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Bicol website para sa buong seasonal advisory.</t>
-  </si>
-  <si>
-    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng mas madalas na pag-ulan sa loob ng {{seasonal_range_identifier}} dahil sa tatlong magkasunod na buwan na may above normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Bicol website para sa buong seasonal advisory.</t>
-  </si>
-  <si>
-    <t>Hi {{Ka-AMIA}}! Magiging angkop ang lagay ng panahon para sa pagtatanim ng palay sa loob ng {{seasonal_range_identifier}}. Bisitahin ang ACAP-Bicol website para sa buong seasonal advisory.</t>
-  </si>
-  <si>
     <t>Hi {{Ka-AMIA}}! Asahan ang masamang lagay ng panahon dulot ng Tropical Depression {{special_weather_name_identifier}}. Ipagpaliban ang mga gawaing pangsakahan kung may malakas na pag-ulan.</t>
   </si>
   <si>
@@ -229,6 +208,27 @@
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;Lorem ipsum+B3:B4 dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat.&amp;nbsp;&lt;/li&gt;&lt;li&gt;Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng dry condition sa loob ng {{seasonal_range_identifier}} dahil sa dalawang magkasunod na buwan na may below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Caraga website para sa buong seasonal advisory.</t>
+  </si>
+  <si>
+    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng dry spell sa loob ng {{seasonal_range_identifier}} dahil sa tatlong magkasunod na buwan na may below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Caraga website para sa buong seasonal advisory.</t>
+  </si>
+  <si>
+    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng dry spell sa loob ng {{seasonal_range_identifier}} dahil sa dalawang magkasunod na buwan na may way below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Caraga website para sa buong seasonal advisory.</t>
+  </si>
+  <si>
+    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng drought sa loob ng {{seasonal_range_identifier}} dahil sa tatlong magkasunod na buwan na may way below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Caraga website para sa buong seasonal advisory.</t>
+  </si>
+  <si>
+    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng drought sa loob ng {{seasonal_range_identifier}} dahil sa limang magkasunod na buwan na may below normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Caraga website para sa buong seasonal advisory.</t>
+  </si>
+  <si>
+    <t>Hi {{Ka-AMIA}}! Maaring makaranas ng mas madalas na pag-ulan sa loob ng {{seasonal_range_identifier}} dahil sa tatlong magkasunod na buwan na may above normal na dami ng ulan ayon sa PAGASA. Bisitahin ang ACAP-Caraga website para sa buong seasonal advisory.</t>
+  </si>
+  <si>
+    <t>Hi {{Ka-AMIA}}! Magiging angkop ang lagay ng panahon para sa pagtatanim ng palay sa loob ng {{seasonal_range_identifier}}. Bisitahin ang ACAP-Caraga website para sa buong seasonal advisory.</t>
   </si>
 </sst>
 </file>
@@ -374,17 +374,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,16 +706,16 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="27.296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.69921875" style="8" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="8" customWidth="1"/>
-    <col min="4" max="7" width="32.83203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="4" max="7" width="32.796875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -725,17 +725,17 @@
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="23"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -753,7 +753,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="130" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
@@ -776,7 +776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="130" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -799,7 +799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="130" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
@@ -822,7 +822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="130" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
@@ -845,7 +845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="130" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
@@ -868,7 +868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="130" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
@@ -891,7 +891,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="130" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
@@ -914,7 +914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="130" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
@@ -937,7 +937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="130" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
@@ -960,9 +960,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="130" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>15</v>
@@ -983,9 +983,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="130" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>15</v>
@@ -1006,9 +1006,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="130" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>15</v>
@@ -1029,9 +1029,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="130" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>20</v>
@@ -1052,9 +1052,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="130" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>20</v>
@@ -1075,9 +1075,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>20</v>
@@ -1098,9 +1098,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>21</v>
@@ -1121,9 +1121,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>21</v>
@@ -1144,9 +1144,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>21</v>
@@ -1167,9 +1167,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>15</v>
@@ -1190,9 +1190,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>15</v>
@@ -1213,9 +1213,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>15</v>
@@ -1236,9 +1236,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>20</v>
@@ -1259,9 +1259,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>20</v>
@@ -1282,9 +1282,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>20</v>
@@ -1305,9 +1305,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>21</v>
@@ -1328,9 +1328,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>21</v>
@@ -1351,9 +1351,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>21</v>
@@ -1374,9 +1374,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>15</v>
@@ -1397,9 +1397,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>15</v>
@@ -1420,9 +1420,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>15</v>
@@ -1443,9 +1443,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>21</v>
@@ -1466,9 +1466,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>21</v>
@@ -1489,9 +1489,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>21</v>
@@ -1512,7 +1512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>17</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>17</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>17</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>17</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>17</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>17</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -1659,7 +1659,7 @@
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -1668,7 +1668,7 @@
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -1677,7 +1677,7 @@
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -1686,7 +1686,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -1695,7 +1695,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -1704,7 +1704,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -1713,7 +1713,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -1722,7 +1722,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -1748,14 +1748,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" customWidth="1"/>
-    <col min="2" max="2" width="89.33203125" customWidth="1"/>
-    <col min="3" max="3" width="84.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="56.296875" customWidth="1"/>
+    <col min="2" max="2" width="89.296875" customWidth="1"/>
+    <col min="3" max="3" width="84.19921875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -1764,141 +1764,141 @@
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="18"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="18"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="C29" s="7"/>
     </row>
@@ -1915,17 +1915,17 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="25.69921875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.69921875" style="12" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="12" customWidth="1"/>
-    <col min="4" max="7" width="32.83203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="16"/>
+    <col min="4" max="7" width="32.796875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="22.69921875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1935,18 +1935,18 @@
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="23"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="14"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="130" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="130" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="130" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="130" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="130" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="130" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="130" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="130" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="130" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="130" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="130" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="130" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="130" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="130" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
@@ -2309,9 +2309,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>15</v>
@@ -2332,9 +2332,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>15</v>
@@ -2355,9 +2355,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>15</v>
@@ -2378,9 +2378,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>15</v>
@@ -2401,9 +2401,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>15</v>
@@ -2424,9 +2424,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>20</v>
@@ -2447,9 +2447,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>20</v>
@@ -2470,9 +2470,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>20</v>
@@ -2493,9 +2493,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>20</v>
@@ -2516,9 +2516,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>20</v>
@@ -2539,9 +2539,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>21</v>
@@ -2562,9 +2562,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>21</v>
@@ -2585,9 +2585,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>21</v>
@@ -2608,9 +2608,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>21</v>
@@ -2631,9 +2631,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>21</v>
@@ -2654,9 +2654,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>15</v>
@@ -2677,9 +2677,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>15</v>
@@ -2700,9 +2700,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>15</v>
@@ -2723,9 +2723,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>15</v>
@@ -2746,9 +2746,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>15</v>
@@ -2769,9 +2769,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>20</v>
@@ -2792,9 +2792,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>20</v>
@@ -2815,9 +2815,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>20</v>
@@ -2838,9 +2838,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>20</v>
@@ -2861,9 +2861,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>20</v>
@@ -2884,9 +2884,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>21</v>
@@ -2907,9 +2907,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>21</v>
@@ -2930,9 +2930,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>21</v>
@@ -2953,9 +2953,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>21</v>
@@ -2976,9 +2976,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>21</v>
@@ -2999,9 +2999,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>15</v>
@@ -3022,9 +3022,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>15</v>
@@ -3045,9 +3045,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>15</v>
@@ -3068,9 +3068,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>15</v>
@@ -3091,9 +3091,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>15</v>
@@ -3114,9 +3114,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>21</v>
@@ -3137,9 +3137,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>21</v>
@@ -3160,9 +3160,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>21</v>
@@ -3183,9 +3183,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>21</v>
@@ -3206,9 +3206,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>21</v>
@@ -3229,7 +3229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>17</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>17</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>17</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>17</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>17</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>17</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>17</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>17</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
         <v>17</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="130" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>17</v>
       </c>
@@ -3459,96 +3459,96 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
@@ -3567,18 +3567,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D34D3AE-F2E2-3348-B195-43FB4D0F780C}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection sqref="A1:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="62.296875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -3586,184 +3586,184 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="53" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="18"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="18"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="18"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="18"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="18"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="18"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="18"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="18"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="18"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="18"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="18"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="18"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="18"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="18"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="18"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="18"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="18"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="18"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="18"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="18"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="B33" s="18"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="18"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="18"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="B36" s="18"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="18"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="18"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="18"/>
     </row>
@@ -3776,34 +3776,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B4F791-8893-1849-9452-A54B8C2F2F8E}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="27.296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.69921875" style="8" customWidth="1"/>
     <col min="3" max="3" width="38" style="8" customWidth="1"/>
     <col min="4" max="4" width="41" style="8" customWidth="1"/>
-    <col min="5" max="5" width="42.83203125" customWidth="1"/>
+    <col min="5" max="5" width="42.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
       <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
@@ -3817,99 +3817,99 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="248.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="248.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="248.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="248.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="B7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>61</v>
-      </c>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>58</v>
+    <row r="8" spans="1:6" ht="248.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>29</v>
@@ -3918,14 +3918,14 @@
         <v>29</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
@@ -3933,7 +3933,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -3941,7 +3941,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -3949,7 +3949,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -3957,7 +3957,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
@@ -3965,7 +3965,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
@@ -3973,7 +3973,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
@@ -3981,7 +3981,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="22"/>
@@ -3989,7 +3989,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="22"/>
@@ -3997,7 +3997,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="22"/>
@@ -4022,17 +4022,17 @@
       <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.296875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="26.69921875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="71.69921875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="22.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>16</v>
@@ -4040,112 +4040,112 @@
       <c r="C1" s="19"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="B8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
